--- a/SpaOnline/ModeloDominio/Servicio - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Servicio - Muestreo Datos.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{896C23FC-EA98-4E93-8FDC-F47406428CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC954D0-570E-404C-A962-01CBBCA49EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1125" yWindow="375" windowWidth="15060" windowHeight="10770" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Servicio" sheetId="5" r:id="rId3"/>
+    <sheet name="TipoServicio" sheetId="6" r:id="rId4"/>
+    <sheet name="Oferta" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -81,32 +83,86 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>Producto</t>
-  </si>
-  <si>
     <t>Servicio</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de los servicios que ofrece el Spa</t>
-  </si>
-  <si>
-    <t>Limpieza facial</t>
-  </si>
-  <si>
-    <t>Masaje completo</t>
-  </si>
-  <si>
-    <t>Chocolaterapia</t>
-  </si>
-  <si>
-    <t>Nombre Servicio</t>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Duracion</t>
+  </si>
+  <si>
+    <t>Combinacion Unica</t>
+  </si>
+  <si>
+    <t>Pedicura y Manicura</t>
+  </si>
+  <si>
+    <t>60 minutos</t>
+  </si>
+  <si>
+    <t>90 minutos</t>
+  </si>
+  <si>
+    <t>Tratamiento Facial</t>
+  </si>
+  <si>
+    <t>Masaje</t>
+  </si>
+  <si>
+    <t>TipoServicio</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Masaje Relajante</t>
+  </si>
+  <si>
+    <t>Tratamiento Facial Antiedad</t>
+  </si>
+  <si>
+    <t>Pedicura Spa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descuento </t>
+  </si>
+  <si>
+    <t>FechaInicio</t>
+  </si>
+  <si>
+    <t>FechaFin</t>
+  </si>
+  <si>
+    <t>20/03//2024</t>
+  </si>
+  <si>
+    <t>20/03//2025</t>
+  </si>
+  <si>
+    <t>20/03//2026</t>
+  </si>
+  <si>
+    <t>Oferta</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información sobre los tipos de servicios ofrecidos por el spa, como masajes, tratamientos faciales, pedicura, etc.</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información sobre las ofertas especiales asociadas a los servicios ofrecidos por el spa</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene información detallada sobre los servicios específicos ofrecidos por el spa</t>
+  </si>
+  <si>
+    <t>Servicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +174,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,10 +237,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -189,8 +260,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,15 +685,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" style="8" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
@@ -636,20 +715,53 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>8</v>
+      <c r="A2" s="14" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>7</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="Servicio!A1" display="Servicio" xr:uid="{1B941AE0-B9D5-48EA-8B5E-FCA1F99F1D33}"/>
+    <hyperlink ref="A3" location="TipoServicio!A1" display="TipoServicio" xr:uid="{C435E2E8-31E6-43EA-8AEA-9447A4E0C810}"/>
+    <hyperlink ref="A4" location="Oferta!A1" display="Oferta" xr:uid="{D7A38285-3128-4507-809F-00E78B181BAE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -657,67 +769,291 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="4" t="str">
-        <f>+B2</f>
-        <v>Limpieza facial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>TipoServicio!D2</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+      <c r="D2" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>B2&amp;"-"&amp;D2</f>
+        <v>Pedicura Spa-100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="4" t="str">
-        <f t="shared" ref="C3:C4" si="0">+B3</f>
-        <v>Masaje completo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>TipoServicio!D3</f>
+        <v>Tratamiento Facial</v>
+      </c>
+      <c r="D3" s="11">
+        <v>120000</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f>B3&amp;"-"&amp;D3</f>
+        <v>Tratamiento Facial Antiedad-120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>TipoServicio!D4</f>
+        <v>Masaje</v>
+      </c>
+      <c r="D4" s="11">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f>B4&amp;"-"&amp;D4</f>
+        <v>Masaje Relajante-100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8285BE18-1034-46DE-BE10-8EBB5362B7DA}"/>
+    <hyperlink ref="C3:C4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{3B745E16-F563-4178-92F6-C9AB6D383114}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DD65F79-6C02-4D3F-86AD-E8559480B117}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Chocolaterapia</v>
+      <c r="D2" s="4" t="str">
+        <f>B2</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>B3</f>
+        <v>Tratamiento Facial</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>B4</f>
+        <v>Masaje</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62648864-EB04-44C3-BA83-B67C2DB45844}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="C2" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="13">
+        <v>45402</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>Pedicura Spa-0,2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="C3" s="12">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="13">
+        <v>45403</v>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f>B3&amp;"-"&amp;C3</f>
+        <v>Tratamiento Facial Antiedad-0,25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="13">
+        <v>45404</v>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f>B4&amp;"-"&amp;C4</f>
+        <v>Masaje Relajante-0,15</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{04A202BD-4A89-45B5-BB07-946ED8AAFAEC}"/>
+    <hyperlink ref="B3:B4" location="TipoServicio!B2" display="TipoServicio!B2" xr:uid="{FFC9BD91-45C2-474E-877A-D1F2AF74D318}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>